--- a/biology/Botanique/Disa_cornuta/Disa_cornuta.xlsx
+++ b/biology/Botanique/Disa_cornuta/Disa_cornuta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Disa cornuta est une espèce de la famille des Orchidaceae. On le trouve du Zimbabwe à l'Afrique du Sud[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Disa cornuta est une espèce de la famille des Orchidaceae. On le trouve du Zimbabwe à l'Afrique du Sud,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un géophyte tubéreux[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un géophyte tubéreux.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Disa cornuta (L.) Sw.[3].
-L'espèce a été initialement classée dans le genre Orchis sous le basionyme Orchis cornuta L.[3].
-Disa cornuta a pour synonymes[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Disa cornuta (L.) Sw..
+L'espèce a été initialement classée dans le genre Orchis sous le basionyme Orchis cornuta L..
+Disa cornuta a pour synonymes :
 Disa macrantha Sw.
 Orchis cornuta L.
 Satyrium cornutum (L.) Thunb.</t>
